--- a/Networks/Parte2/Excel/Parte2-Network12.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network12.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3006429235998946</v>
+        <v>-0.3083888998137556</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9847378380764418</v>
+        <v>-0.3266766542974147</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.698908645804697</v>
+        <v>-0.6934534984498852</v>
       </c>
       <c r="C3" t="n">
-        <v>1.137354808615942</v>
+        <v>0.3008124411097155</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.209052267521415</v>
+        <v>-1.298486295815009</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966018490690497</v>
+        <v>-1.211234106537655</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.990341086496737</v>
+        <v>-0.665847225197116</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.304715300971319</v>
+        <v>0.07973425602387073</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.081799627072049</v>
+        <v>-1.159976077872662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7533421858084915</v>
+        <v>-0.7025142724985503</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.318761040030334</v>
+        <v>-0.5629205337645407</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05682677350056032</v>
+        <v>0.253028877470333</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network12.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network12.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3083888998137556</v>
+        <v>-0.7359652415508847</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3266766542974147</v>
+        <v>-0.4679439076167258</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6934534984498852</v>
+        <v>0.6618991848898064</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3008124411097155</v>
+        <v>-1.651533521638236</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.298486295815009</v>
+        <v>-1.452238714845729</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.211234106537655</v>
+        <v>0.2128442481488183</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.665847225197116</v>
+        <v>-0.5515881728546594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07973425602387073</v>
+        <v>-0.4692181449879241</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.159976077872662</v>
+        <v>-0.6965345639246838</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7025142724985503</v>
+        <v>0.9101792829456896</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5629205337645407</v>
+        <v>-1.4515701270972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.253028877470333</v>
+        <v>0.8747949651556715</v>
       </c>
     </row>
   </sheetData>
